--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_23_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_23_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>860507.6547098353</v>
+        <v>795830.1833135793</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13464549.90075464</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10326580.93019922</v>
+        <v>6292330.992846407</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7266150.125931067</v>
+        <v>9132919.966751488</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11.06860631847015</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.56767277096606</v>
+        <v>33.5676727709662</v>
       </c>
       <c r="R2" t="n">
-        <v>76.54447849706926</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>76.54447849706926</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>76.54447849706926</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>11.06860631847091</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.80738931956002</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8.319234728273035</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>38.48815459128664</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.61298734065858</v>
+        <v>20.61298734065868</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>76.54447849706926</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>76.54447849706926</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>76.54447849706926</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>80.15409932856802</v>
+        <v>81.30196747731264</v>
       </c>
       <c r="G5" t="n">
         <v>112.1126601249236</v>
@@ -916,7 +916,7 @@
         <v>112.1126601249236</v>
       </c>
       <c r="I5" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>18.59473170946467</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771685</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>95.35315165846211</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>112.1126601249236</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>64.26286446312979</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>30.08282103867673</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821446</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.09559288881302</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>44.25381344577438</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.1126601249236</v>
+        <v>89.42651845964508</v>
       </c>
     </row>
     <row r="7">
@@ -1083,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.625377488803558</v>
       </c>
       <c r="M7" t="n">
-        <v>3.625377488803558</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>119.3624145151981</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G8" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="H8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>119.3624145151981</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>7.091680627731961</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>26.60493364713339</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>144.6751566710423</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="U9" t="n">
+      <c r="Y9" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="V9" t="n">
-        <v>49.83661626531914</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>19.59281863505174</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>288.1436158773469</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>64.13489015976099</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>83.83369232362041</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>176.5020980972546</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.1240905243799</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>37.01247764267875</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>254.9305511602667</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>194.7975265067835</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
-        <v>83.83369232362041</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>31.08511370813908</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>32.96992507729637</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>220.0133056736541</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>239.3202850131971</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T17" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>74.90909333346055</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,13 +1931,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>20.27697994470975</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>44.11457336879589</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>56.37860488577178</v>
+        <v>125.8674677046129</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>105.0430334365232</v>
       </c>
       <c r="T20" t="n">
-        <v>37.07252318323159</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1391017539456092</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>60.74064927376609</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U21" t="n">
         <v>225.8205739680685</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2283,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.59469128425539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>120.1155877132859</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>185.9158911817653</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>11.09070292403361</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>146.5990350281158</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>72.81729813874392</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>20.95866062610916</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>94.81275980261576</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>250.3640278003707</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>18.04735278065127</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>53.54735467376845</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>77.92383158564728</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.25108662428404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,7 +2879,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>87.93270968653144</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>184.3755225607023</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>282.3939120001642</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>110.115799295207</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3082,16 +3082,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>221.7048515690723</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>87.62154955555334</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>136.0870494265628</v>
       </c>
       <c r="Y35" t="n">
-        <v>227.7172236952946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
         <v>89.59687541851115</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>9.067070199488157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>160.7365361851534</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>253.3848746885032</v>
       </c>
       <c r="E38" t="n">
-        <v>75.4571321610379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>18.34971430167403</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.43568819187463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>186.8250998946402</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>226.1269574499865</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H42" t="n">
         <v>89.59687541851115</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>28.31233659742176</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>72.08802744677213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>252.1855930722039</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>342.4409187161196</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>52.8664224582317</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>149.3991884271814</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.13779825025202</v>
+        <v>272.271173815583</v>
       </c>
       <c r="C2" t="n">
-        <v>29.13779825025202</v>
+        <v>272.271173815583</v>
       </c>
       <c r="D2" t="n">
-        <v>29.13779825025202</v>
+        <v>272.271173815583</v>
       </c>
       <c r="E2" t="n">
-        <v>29.13779825025202</v>
+        <v>272.271173815583</v>
       </c>
       <c r="F2" t="n">
-        <v>29.13779825025202</v>
+        <v>194.9535187680385</v>
       </c>
       <c r="G2" t="n">
-        <v>29.13779825025202</v>
+        <v>117.635863720494</v>
       </c>
       <c r="H2" t="n">
-        <v>29.13779825025202</v>
+        <v>106.4554532977969</v>
       </c>
       <c r="I2" t="n">
-        <v>29.13779825025202</v>
+        <v>29.13779825025238</v>
       </c>
       <c r="J2" t="n">
-        <v>29.13779825025202</v>
+        <v>29.13779825025238</v>
       </c>
       <c r="K2" t="n">
-        <v>31.34678839675021</v>
+        <v>31.34678839675037</v>
       </c>
       <c r="L2" t="n">
-        <v>70.9889978636908</v>
+        <v>70.98899786369074</v>
       </c>
       <c r="M2" t="n">
-        <v>146.7680315757894</v>
+        <v>146.7680315757891</v>
       </c>
       <c r="N2" t="n">
-        <v>222.5470652878879</v>
+        <v>222.5470652878874</v>
       </c>
       <c r="O2" t="n">
-        <v>286.2823359255707</v>
+        <v>286.28233592557</v>
       </c>
       <c r="P2" t="n">
-        <v>306.1779139882771</v>
+        <v>306.1779139882761</v>
       </c>
       <c r="Q2" t="n">
-        <v>272.2711738155841</v>
+        <v>272.271173815583</v>
       </c>
       <c r="R2" t="n">
-        <v>194.9535187680393</v>
+        <v>272.271173815583</v>
       </c>
       <c r="S2" t="n">
-        <v>117.6358637204946</v>
+        <v>272.271173815583</v>
       </c>
       <c r="T2" t="n">
-        <v>117.6358637204946</v>
+        <v>272.271173815583</v>
       </c>
       <c r="U2" t="n">
-        <v>117.6358637204946</v>
+        <v>272.271173815583</v>
       </c>
       <c r="V2" t="n">
-        <v>40.31820867294991</v>
+        <v>272.271173815583</v>
       </c>
       <c r="W2" t="n">
-        <v>29.13779825025202</v>
+        <v>272.271173815583</v>
       </c>
       <c r="X2" t="n">
-        <v>29.13779825025202</v>
+        <v>272.271173815583</v>
       </c>
       <c r="Y2" t="n">
-        <v>29.13779825025202</v>
+        <v>272.271173815583</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.123558279765541</v>
+        <v>285.3567146542775</v>
       </c>
       <c r="C3" t="n">
-        <v>6.123558279765541</v>
+        <v>208.039059606733</v>
       </c>
       <c r="D3" t="n">
-        <v>6.123558279765541</v>
+        <v>199.635792204437</v>
       </c>
       <c r="E3" t="n">
-        <v>6.123558279765541</v>
+        <v>122.3181371568925</v>
       </c>
       <c r="F3" t="n">
-        <v>6.123558279765541</v>
+        <v>45.000482109348</v>
       </c>
       <c r="G3" t="n">
-        <v>6.123558279765541</v>
+        <v>45.000482109348</v>
       </c>
       <c r="H3" t="n">
-        <v>6.123558279765541</v>
+        <v>45.000482109348</v>
       </c>
       <c r="I3" t="n">
-        <v>6.123558279765541</v>
+        <v>45.000482109348</v>
       </c>
       <c r="J3" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="K3" t="n">
-        <v>19.15382037010845</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="L3" t="n">
-        <v>34.69196001066695</v>
+        <v>69.96689484960373</v>
       </c>
       <c r="M3" t="n">
-        <v>110.4709937227655</v>
+        <v>145.7459285617021</v>
       </c>
       <c r="N3" t="n">
-        <v>186.2500274348641</v>
+        <v>221.5249622738004</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0290611469626</v>
+        <v>262.0290611469619</v>
       </c>
       <c r="P3" t="n">
-        <v>306.1779139882771</v>
+        <v>306.1779139882761</v>
       </c>
       <c r="Q3" t="n">
-        <v>285.3567146542785</v>
+        <v>285.3567146542775</v>
       </c>
       <c r="R3" t="n">
-        <v>285.3567146542785</v>
+        <v>285.3567146542775</v>
       </c>
       <c r="S3" t="n">
-        <v>208.0390596067338</v>
+        <v>285.3567146542775</v>
       </c>
       <c r="T3" t="n">
-        <v>208.0390596067338</v>
+        <v>285.3567146542775</v>
       </c>
       <c r="U3" t="n">
-        <v>208.0390596067338</v>
+        <v>285.3567146542775</v>
       </c>
       <c r="V3" t="n">
-        <v>130.7214045591891</v>
+        <v>285.3567146542775</v>
       </c>
       <c r="W3" t="n">
-        <v>53.40374951164435</v>
+        <v>285.3567146542775</v>
       </c>
       <c r="X3" t="n">
-        <v>53.40374951164435</v>
+        <v>285.3567146542775</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.40374951164435</v>
+        <v>285.3567146542775</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="C4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="D4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="E4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="F4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="G4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="H4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="I4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="J4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="K4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="L4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="M4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="N4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="O4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="P4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="R4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="S4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="T4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="U4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="V4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="W4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="X4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.123558279765541</v>
+        <v>6.123558279765523</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="C5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="D5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="E5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="F5" t="n">
-        <v>367.4869038041711</v>
+        <v>254.2417925668746</v>
       </c>
       <c r="G5" t="n">
-        <v>254.2417925668746</v>
+        <v>140.996681329578</v>
       </c>
       <c r="H5" t="n">
-        <v>140.996681329578</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="I5" t="n">
         <v>27.75157009228143</v>
@@ -4588,31 +4588,31 @@
         <v>448.4506404996944</v>
       </c>
       <c r="Q5" t="n">
-        <v>448.4506404996944</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="R5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="S5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="T5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="U5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="V5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="W5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="X5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
       <c r="Y5" t="n">
-        <v>448.4506404996944</v>
+        <v>336.3649920389075</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>290.5047075999994</v>
+        <v>152.6008119651457</v>
       </c>
       <c r="C6" t="n">
-        <v>290.5047075999994</v>
+        <v>152.6008119651457</v>
       </c>
       <c r="D6" t="n">
-        <v>290.5047075999994</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="E6" t="n">
-        <v>290.5047075999994</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="F6" t="n">
-        <v>290.5047075999994</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="G6" t="n">
-        <v>177.2595963627029</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="H6" t="n">
-        <v>73.8809971161856</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="I6" t="n">
-        <v>8.969012809993888</v>
+        <v>39.35570072784917</v>
       </c>
       <c r="J6" t="n">
         <v>8.969012809993888</v>
@@ -4661,37 +4661,37 @@
         <v>313.9191793512204</v>
       </c>
       <c r="O6" t="n">
-        <v>387.4830745953192</v>
+        <v>413.9712807824703</v>
       </c>
       <c r="P6" t="n">
         <v>448.4506404996944</v>
       </c>
       <c r="Q6" t="n">
-        <v>448.4506404996944</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="R6" t="n">
-        <v>448.4506404996944</v>
+        <v>356.1757398283464</v>
       </c>
       <c r="S6" t="n">
-        <v>448.4506404996944</v>
+        <v>356.1757398283464</v>
       </c>
       <c r="T6" t="n">
-        <v>448.4506404996944</v>
+        <v>356.1757398283464</v>
       </c>
       <c r="U6" t="n">
-        <v>448.4506404996944</v>
+        <v>356.1757398283464</v>
       </c>
       <c r="V6" t="n">
-        <v>448.4506404996944</v>
+        <v>356.1757398283464</v>
       </c>
       <c r="W6" t="n">
-        <v>448.4506404996944</v>
+        <v>356.1757398283464</v>
       </c>
       <c r="X6" t="n">
-        <v>403.749818837296</v>
+        <v>356.1757398283464</v>
       </c>
       <c r="Y6" t="n">
-        <v>290.5047075999994</v>
+        <v>265.8459232024423</v>
       </c>
     </row>
     <row r="7">
@@ -4731,7 +4731,7 @@
         <v>12.63101027343183</v>
       </c>
       <c r="L7" t="n">
-        <v>12.63101027343183</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="M7" t="n">
         <v>8.969012809993888</v>
@@ -4789,16 +4789,16 @@
         <v>431.5784655488496</v>
       </c>
       <c r="E8" t="n">
-        <v>431.5784655488496</v>
+        <v>311.0103700789526</v>
       </c>
       <c r="F8" t="n">
-        <v>431.5784655488496</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="G8" t="n">
-        <v>285.4419436589079</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="H8" t="n">
-        <v>139.3054217689662</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="I8" t="n">
         <v>18.7373262990692</v>
@@ -4831,22 +4831,22 @@
         <v>577.7149874387914</v>
       </c>
       <c r="S8" t="n">
-        <v>577.7149874387914</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="T8" t="n">
-        <v>577.7149874387914</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="U8" t="n">
-        <v>577.7149874387914</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="V8" t="n">
-        <v>577.7149874387914</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="W8" t="n">
-        <v>577.7149874387914</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="X8" t="n">
-        <v>577.7149874387914</v>
+        <v>431.5784655488496</v>
       </c>
       <c r="Y8" t="n">
         <v>431.5784655488496</v>
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.57401253368338</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="C9" t="n">
-        <v>11.57401253368338</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="D9" t="n">
-        <v>11.57401253368338</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="E9" t="n">
-        <v>11.57401253368338</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="F9" t="n">
-        <v>11.57401253368338</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="G9" t="n">
-        <v>11.57401253368338</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="H9" t="n">
-        <v>11.57401253368338</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="I9" t="n">
-        <v>11.57401253368338</v>
+        <v>35.04035861265888</v>
       </c>
       <c r="J9" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>11.57401253368338</v>
+        <v>50.41925783498755</v>
       </c>
       <c r="L9" t="n">
-        <v>110.1287797974577</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M9" t="n">
-        <v>244.4944128384901</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N9" t="n">
-        <v>386.8913402620004</v>
+        <v>426.5680632441262</v>
       </c>
       <c r="O9" t="n">
         <v>504.0242257254406</v>
@@ -4913,22 +4913,22 @@
         <v>354.1870727431821</v>
       </c>
       <c r="T9" t="n">
+        <v>354.1870727431821</v>
+      </c>
+      <c r="U9" t="n">
+        <v>354.1870727431821</v>
+      </c>
+      <c r="V9" t="n">
+        <v>354.1870727431821</v>
+      </c>
+      <c r="W9" t="n">
+        <v>354.1870727431821</v>
+      </c>
+      <c r="X9" t="n">
         <v>208.0505508532404</v>
       </c>
-      <c r="U9" t="n">
+      <c r="Y9" t="n">
         <v>61.91402896329868</v>
-      </c>
-      <c r="V9" t="n">
-        <v>11.57401253368338</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11.57401253368338</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11.57401253368338</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="C10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="D10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="E10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="F10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="G10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="H10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="I10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="J10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="K10" t="n">
         <v>11.57401253368338</v>
@@ -4980,34 +4980,34 @@
         <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="W10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="X10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.57401253368338</v>
+        <v>31.36473842767504</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>334.4233539899587</v>
+        <v>1274.454286442887</v>
       </c>
       <c r="C11" t="n">
-        <v>43.36919653809314</v>
+        <v>905.4917695024753</v>
       </c>
       <c r="D11" t="n">
-        <v>43.36919653809314</v>
+        <v>840.7090521693834</v>
       </c>
       <c r="E11" t="n">
-        <v>43.36919653809314</v>
+        <v>840.7090521693834</v>
       </c>
       <c r="F11" t="n">
-        <v>43.36919653809314</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="G11" t="n">
-        <v>43.36919653809314</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H11" t="n">
-        <v>43.36919653809314</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I11" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J11" t="n">
         <v>152.5078184301905</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232726</v>
+        <v>366.8168396232725</v>
       </c>
       <c r="L11" t="n">
-        <v>669.587892771188</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M11" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P11" t="n">
         <v>2021.63095817245</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S11" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T11" t="n">
-        <v>2168.459826904657</v>
+        <v>1958.285829056572</v>
       </c>
       <c r="U11" t="n">
-        <v>2168.459826904657</v>
+        <v>1958.285829056572</v>
       </c>
       <c r="V11" t="n">
-        <v>1837.396939561086</v>
+        <v>1627.222941713001</v>
       </c>
       <c r="W11" t="n">
-        <v>1484.628284290972</v>
+        <v>1274.454286442887</v>
       </c>
       <c r="X11" t="n">
-        <v>1111.162526029892</v>
+        <v>1274.454286442887</v>
       </c>
       <c r="Y11" t="n">
-        <v>721.0231940540805</v>
+        <v>1274.454286442887</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>672.528648459042</v>
+        <v>809.4046422439259</v>
       </c>
       <c r="C12" t="n">
-        <v>498.075619177915</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D12" t="n">
-        <v>349.1412095166637</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E12" t="n">
-        <v>189.9037545112082</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F12" t="n">
-        <v>43.36919653809314</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G12" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H12" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I12" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562341</v>
       </c>
       <c r="K12" t="n">
         <v>246.6448318504524</v>
@@ -5144,28 +5144,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R12" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S12" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T12" t="n">
-        <v>1510.593141177798</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U12" t="n">
-        <v>1510.593141177798</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="V12" t="n">
-        <v>1510.593141177798</v>
+        <v>1393.231778234481</v>
       </c>
       <c r="W12" t="n">
-        <v>1256.355784449597</v>
+        <v>1393.231778234481</v>
       </c>
       <c r="X12" t="n">
-        <v>1048.504284244064</v>
+        <v>1185.380278028948</v>
       </c>
       <c r="Y12" t="n">
-        <v>840.7439854791101</v>
+        <v>977.6199792639939</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.2893470406003</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="C13" t="n">
-        <v>520.2893470406003</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="D13" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="E13" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="F13" t="n">
-        <v>373.3993995426899</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G13" t="n">
-        <v>205.2665701377083</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H13" t="n">
-        <v>61.70688273934481</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I13" t="n">
-        <v>61.70688273934481</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J13" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K13" t="n">
         <v>92.71685897981547</v>
@@ -5238,13 +5238,13 @@
         <v>520.2893470406003</v>
       </c>
       <c r="W13" t="n">
-        <v>520.2893470406003</v>
+        <v>230.8721770036397</v>
       </c>
       <c r="X13" t="n">
-        <v>520.2893470406003</v>
+        <v>230.8721770036397</v>
       </c>
       <c r="Y13" t="n">
-        <v>520.2893470406003</v>
+        <v>193.4858359504289</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1055.625573309342</v>
+        <v>688.0500297248345</v>
       </c>
       <c r="C14" t="n">
-        <v>686.66305636893</v>
+        <v>319.0875127844228</v>
       </c>
       <c r="D14" t="n">
-        <v>686.66305636893</v>
+        <v>319.0875127844228</v>
       </c>
       <c r="E14" t="n">
-        <v>300.8748037706858</v>
+        <v>319.0875127844228</v>
       </c>
       <c r="F14" t="n">
-        <v>43.36919653809315</v>
+        <v>319.0875127844228</v>
       </c>
       <c r="G14" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H14" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I14" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J14" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K14" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232725</v>
       </c>
       <c r="L14" t="n">
-        <v>669.5878927711881</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N14" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O14" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P14" t="n">
         <v>2021.63095817245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R14" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S14" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="T14" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="U14" t="n">
-        <v>2168.459826904657</v>
+        <v>1782.718007305297</v>
       </c>
       <c r="V14" t="n">
-        <v>2168.459826904657</v>
+        <v>1451.655119961726</v>
       </c>
       <c r="W14" t="n">
-        <v>1815.691171634543</v>
+        <v>1451.655119961726</v>
       </c>
       <c r="X14" t="n">
-        <v>1442.225413373463</v>
+        <v>1078.189361700646</v>
       </c>
       <c r="Y14" t="n">
-        <v>1442.225413373463</v>
+        <v>688.0500297248345</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>672.528648459042</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="C15" t="n">
-        <v>498.075619177915</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D15" t="n">
-        <v>349.1412095166637</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E15" t="n">
-        <v>189.9037545112082</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F15" t="n">
-        <v>43.36919653809315</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G15" t="n">
-        <v>43.36919653809315</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H15" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I15" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J15" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562341</v>
       </c>
       <c r="K15" t="n">
         <v>246.6448318504524</v>
@@ -5381,28 +5381,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R15" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S15" t="n">
-        <v>1595.273638474385</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T15" t="n">
-        <v>1510.593141177798</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="U15" t="n">
-        <v>1510.593141177798</v>
+        <v>1595.863282079511</v>
       </c>
       <c r="V15" t="n">
-        <v>1510.593141177798</v>
+        <v>1360.711173847768</v>
       </c>
       <c r="W15" t="n">
-        <v>1256.355784449597</v>
+        <v>1106.473817119567</v>
       </c>
       <c r="X15" t="n">
-        <v>1048.504284244064</v>
+        <v>898.6223169140339</v>
       </c>
       <c r="Y15" t="n">
-        <v>840.7439854791101</v>
+        <v>898.6223169140339</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="C16" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="D16" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="E16" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="F16" t="n">
-        <v>373.3993995426899</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G16" t="n">
-        <v>205.2665701377083</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9636155141766</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I16" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J16" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K16" t="n">
-        <v>92.71685897981548</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L16" t="n">
         <v>185.7706748018946</v>
@@ -5472,16 +5472,16 @@
         <v>520.2893470406003</v>
       </c>
       <c r="V16" t="n">
-        <v>520.2893470406003</v>
+        <v>265.6048588347135</v>
       </c>
       <c r="W16" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="X16" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="Y16" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809313</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1156.385664683499</v>
+        <v>1065.055279897604</v>
       </c>
       <c r="C17" t="n">
-        <v>787.4231477430878</v>
+        <v>696.0927629571927</v>
       </c>
       <c r="D17" t="n">
-        <v>429.1574491363374</v>
+        <v>696.0927629571927</v>
       </c>
       <c r="E17" t="n">
-        <v>43.36919653809315</v>
+        <v>696.0927629571927</v>
       </c>
       <c r="F17" t="n">
-        <v>43.36919653809315</v>
+        <v>285.1068581675851</v>
       </c>
       <c r="G17" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H17" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I17" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J17" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K17" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L17" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711876</v>
       </c>
       <c r="M17" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N17" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O17" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P17" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R17" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S17" t="n">
-        <v>2168.459826904657</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="T17" t="n">
-        <v>1958.285829056573</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="U17" t="n">
-        <v>1882.620078214693</v>
+        <v>1782.718007305297</v>
       </c>
       <c r="V17" t="n">
-        <v>1882.620078214693</v>
+        <v>1451.655119961726</v>
       </c>
       <c r="W17" t="n">
-        <v>1529.851422944579</v>
+        <v>1451.655119961726</v>
       </c>
       <c r="X17" t="n">
-        <v>1156.385664683499</v>
+        <v>1451.655119961726</v>
       </c>
       <c r="Y17" t="n">
-        <v>1156.385664683499</v>
+        <v>1451.655119961726</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>693.0104463829912</v>
+        <v>503.6326292653555</v>
       </c>
       <c r="C18" t="n">
-        <v>518.5574171018642</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D18" t="n">
-        <v>369.6230074406129</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E18" t="n">
-        <v>210.3855524351574</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F18" t="n">
-        <v>63.85099446204239</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G18" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H18" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I18" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J18" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562338</v>
       </c>
       <c r="K18" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L18" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M18" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789498</v>
       </c>
       <c r="N18" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O18" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P18" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q18" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R18" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S18" t="n">
-        <v>1766.22704733349</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="T18" t="n">
-        <v>1766.22704733349</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="U18" t="n">
-        <v>1766.22704733349</v>
+        <v>1367.172048607649</v>
       </c>
       <c r="V18" t="n">
-        <v>1531.074939101748</v>
+        <v>1132.019940375906</v>
       </c>
       <c r="W18" t="n">
-        <v>1276.837582373546</v>
+        <v>1087.45976525591</v>
       </c>
       <c r="X18" t="n">
-        <v>1068.986082168013</v>
+        <v>879.6082650503774</v>
       </c>
       <c r="Y18" t="n">
-        <v>861.2257834030593</v>
+        <v>671.8479662854236</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.36919653809315</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="C19" t="n">
-        <v>43.36919653809315</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="D19" t="n">
-        <v>43.36919653809315</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="E19" t="n">
-        <v>43.36919653809315</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F19" t="n">
-        <v>43.36919653809315</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G19" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H19" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I19" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J19" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K19" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981544</v>
       </c>
       <c r="L19" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M19" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N19" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O19" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P19" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q19" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R19" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S19" t="n">
-        <v>321.109861424827</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T19" t="n">
-        <v>264.1617756816232</v>
+        <v>393.1504907733145</v>
       </c>
       <c r="U19" t="n">
-        <v>264.1617756816232</v>
+        <v>393.1504907733145</v>
       </c>
       <c r="V19" t="n">
-        <v>264.1617756816232</v>
+        <v>393.1504907733145</v>
       </c>
       <c r="W19" t="n">
-        <v>264.1617756816232</v>
+        <v>393.1504907733145</v>
       </c>
       <c r="X19" t="n">
-        <v>264.1617756816232</v>
+        <v>393.1504907733145</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.36919653809315</v>
+        <v>393.1504907733145</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>43.36919653809315</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="C20" t="n">
-        <v>43.36919653809315</v>
+        <v>1693.393235785938</v>
       </c>
       <c r="D20" t="n">
-        <v>43.36919653809315</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E20" t="n">
-        <v>43.36919653809315</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F20" t="n">
-        <v>43.36919653809315</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G20" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H20" t="n">
-        <v>43.36919653809315</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I20" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J20" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K20" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232725</v>
       </c>
       <c r="L20" t="n">
-        <v>669.5878927711879</v>
+        <v>669.5878927711877</v>
       </c>
       <c r="M20" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N20" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O20" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P20" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q20" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R20" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S20" t="n">
-        <v>2168.459826904657</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="T20" t="n">
-        <v>2131.012833790282</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="U20" t="n">
-        <v>1877.405669452791</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="V20" t="n">
-        <v>1546.342782109221</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="W20" t="n">
-        <v>1193.574126839107</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="X20" t="n">
-        <v>820.1083685780267</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="Y20" t="n">
-        <v>429.9690366022149</v>
+        <v>2062.355752726349</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>672.6691552812092</v>
+        <v>377.0596808246756</v>
       </c>
       <c r="C21" t="n">
-        <v>498.2161260000822</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="D21" t="n">
-        <v>349.281716338831</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E21" t="n">
-        <v>190.0442613333755</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F21" t="n">
-        <v>43.50970336026043</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G21" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H21" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I21" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J21" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K21" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L21" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M21" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N21" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O21" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P21" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q21" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R21" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S21" t="n">
-        <v>1766.22704733349</v>
+        <v>1704.872856147867</v>
       </c>
       <c r="T21" t="n">
-        <v>1766.22704733349</v>
+        <v>1510.162534621842</v>
       </c>
       <c r="U21" t="n">
-        <v>1538.125457466754</v>
+        <v>1282.060944755107</v>
       </c>
       <c r="V21" t="n">
-        <v>1302.973349235012</v>
+        <v>1046.908836523364</v>
       </c>
       <c r="W21" t="n">
-        <v>1048.73599250681</v>
+        <v>792.6714797951624</v>
       </c>
       <c r="X21" t="n">
-        <v>840.8844923012773</v>
+        <v>584.8199795896296</v>
       </c>
       <c r="Y21" t="n">
-        <v>840.8844923012773</v>
+        <v>377.0596808246756</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="C22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="D22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K22" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L22" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M22" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N22" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O22" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P22" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q22" t="n">
-        <v>497.4664265514538</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R22" t="n">
-        <v>388.3019303235361</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S22" t="n">
-        <v>266.9730538454695</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T22" t="n">
-        <v>43.36919653809315</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U22" t="n">
-        <v>43.36919653809315</v>
+        <v>231.1630260146237</v>
       </c>
       <c r="V22" t="n">
-        <v>43.36919653809315</v>
+        <v>231.1630260146237</v>
       </c>
       <c r="W22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="X22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809311</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1767.87852028569</v>
+        <v>1998.104470293511</v>
       </c>
       <c r="C23" t="n">
-        <v>1398.916003345278</v>
+        <v>1629.141953353099</v>
       </c>
       <c r="D23" t="n">
-        <v>1040.650304738528</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>1040.650304738528</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>629.6643999489202</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>214.5919497939166</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052369</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792696</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W23" t="n">
-        <v>2531.483610522581</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X23" t="n">
-        <v>2158.017852261502</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y23" t="n">
-        <v>1767.87852028569</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218343</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2471.23093222317</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.23093222317</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.23093222317</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.23093222317</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U25" t="n">
-        <v>3036.502954734815</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V25" t="n">
-        <v>2781.818466528928</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W25" t="n">
-        <v>2492.401296491968</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="X25" t="n">
-        <v>2471.23093222317</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="Y25" t="n">
-        <v>2471.23093222317</v>
+        <v>286.9548903328654</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2071.97538618064</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052369</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X26" t="n">
-        <v>2071.97538618064</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y26" t="n">
-        <v>2071.97538618064</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218343</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
         <v>66.51211643218343</v>
@@ -6414,22 +6414,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>902.6573565447999</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U28" t="n">
-        <v>613.5544896704434</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V28" t="n">
-        <v>613.5544896704434</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W28" t="n">
-        <v>613.5544896704434</v>
+        <v>120.600353476394</v>
       </c>
       <c r="X28" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y28" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>3119.628073993393</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>2746.162315732313</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
         <v>176.6457242372933</v>
@@ -6630,43 +6630,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>507.4345062145372</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U31" t="n">
-        <v>507.4345062145372</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V31" t="n">
-        <v>252.7500180086504</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="W31" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="X31" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1712.341567565139</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="C32" t="n">
-        <v>1343.379050624727</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D32" t="n">
-        <v>1343.379050624727</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W32" t="n">
-        <v>2862.546497866152</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X32" t="n">
-        <v>2489.080739605072</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y32" t="n">
-        <v>2098.941407629261</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="33">
@@ -6888,22 +6888,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U34" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V34" t="n">
-        <v>920.887005818185</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W34" t="n">
-        <v>696.9427113039706</v>
+        <v>155.0187321448636</v>
       </c>
       <c r="X34" t="n">
-        <v>468.9531604059532</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y34" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6970,19 +6970,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V35" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W35" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X35" t="n">
-        <v>2961.784676410102</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y35" t="n">
-        <v>2731.767278738087</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2799.442411330572</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C37" t="n">
-        <v>2630.506228402665</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D37" t="n">
-        <v>2480.389588990329</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>3235.775364366698</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>3235.775364366698</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>3235.775364366698</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>2981.090876160812</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W37" t="n">
-        <v>2981.090876160812</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="X37" t="n">
-        <v>2981.090876160812</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="Y37" t="n">
-        <v>2981.090876160812</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1308.370295943748</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C38" t="n">
-        <v>1308.370295943748</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.370295943748</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
         <v>406.0926155839475</v>
@@ -7171,13 +7171,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7186,7 +7186,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7195,7 +7195,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.5649387724261</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445192</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
         <v>176.6457242372933</v>
@@ -7341,43 +7341,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T40" t="n">
-        <v>639.3706644025392</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U40" t="n">
-        <v>639.3706644025392</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V40" t="n">
-        <v>639.3706644025392</v>
+        <v>252.7500180086504</v>
       </c>
       <c r="W40" t="n">
-        <v>639.3706644025392</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="X40" t="n">
-        <v>639.3706644025392</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y40" t="n">
-        <v>567.2134036026658</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796261</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392144</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>364.0957168234162</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7444,19 +7444,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2780.926337389189</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2449.863450045618</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3325.605821609171</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="C43" t="n">
-        <v>3156.669638681264</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="D43" t="n">
-        <v>3006.552999268928</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="E43" t="n">
-        <v>2858.639905686535</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>2711.749958188625</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>2544.047121563344</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>3325.605821609171</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>3325.605821609171</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V43" t="n">
-        <v>3325.605821609171</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W43" t="n">
-        <v>3325.605821609171</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X43" t="n">
-        <v>3325.605821609171</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y43" t="n">
-        <v>3325.605821609171</v>
+        <v>409.7032203507503</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1976.204921733553</v>
+        <v>1548.76669086687</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.204921733553</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
         <v>406.0926155839475</v>
@@ -7648,10 +7648,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W44" t="n">
-        <v>2994.5429342656</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X44" t="n">
-        <v>2621.07717600452</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2230.937844028709</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>531.1582437467479</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>531.1582437467479</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>531.1582437467479</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>769.9787346796178</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>769.9787346796178</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181849</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8870058181849</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X46" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y46" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.5549812247485</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>321.5755930068456</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>143.0955151852774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.70727407548853</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29.25356324106704</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>92.64859462199195</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>215.4450464029641</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2058324046056</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>251.2077799730656</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>338.1723623989421</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.7257943303073</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.4083851065194</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>103.2040372679255</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.3259473463751</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38.48815459128657</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>87.6192873213252</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>77.76902479936712</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.3954902733335</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8798602351399</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>156.256108652356</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>175.1505046638503</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,76 +22704,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2069960552505</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>155.2568482298245</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.873958863505</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>71.56780190257348</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>37.92865257961431</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.3277404569876</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>16.03283760924415</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>7.714717711557455</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.64406210382701</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>42.90878708658002</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.85709066716304</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>142.0426512165517</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>210.3539071983341</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>224.5958425873008</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2762666308614</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>326.7219464131434</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>301.2760442195642</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>207.7600497819525</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>24.57246563410439</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.61164031771685</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>95.35315165846211</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>165.4040387101213</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.7171693596231</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1925302541847</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.20675900740724</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>30.08282103867673</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,31 +22907,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.256558775821446</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.09559288881302</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>152.6609993460486</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.0368949650912</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8740072105222</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.5191717577031</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>93.57003565238077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1324099710516</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5937101357652</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>129.630951895051</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>66.29456574971167</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.26310570632464</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>7.238823902544766</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7157523946085358</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1016581299688</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>33.88793923037926</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.61152319847201</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>138.6889896488451</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0540751673406</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>224.2771565911783</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2721982989959</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>268.578016356852</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>173.80954313977</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.09764016085671</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>86.83958259249187</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3156188332455</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>214.1238810212347</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1816877488572</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.5627819850113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.76616344642424</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818574</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>6.638896330325082</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06944934699769</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>81.19407977320597</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>182.9639708841061</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.07161528826</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>61.99638167634127</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.19986892380261</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,37 +23217,37 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834793</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>6.942280051143417</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.52079753307214</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>207.9945896499623</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0173974919776</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2688822253891</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>77.12927589366069</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>290.548151460922</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.0710926941158</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I12" t="n">
-        <v>36.29946757904879</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>108.9295259871434</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>56.29848905217062</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>6.415720836865347</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>181.5721757094161</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>151.9454945814447</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8707348436268</v>
+        <v>217.0732083368433</v>
       </c>
       <c r="H14" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>208.0722578696038</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>36.29946757904879</v>
@@ -23627,13 +23627,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>108.9295259871434</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8205739680685</v>
+        <v>194.7354602599295</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>115.5698862839488</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>66.50969266293689</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8707348436268</v>
+        <v>172.5504498304297</v>
       </c>
       <c r="H17" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I17" t="n">
-        <v>78.16360657708285</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U17" t="n">
-        <v>176.1619993606553</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>115.2302539023255</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I18" t="n">
-        <v>36.29946757904878</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>207.5804097921237</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.5398113612452</v>
@@ -23913,7 +23913,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J19" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R19" t="n">
         <v>108.0728512656385</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T19" t="n">
-        <v>164.9892138485308</v>
+        <v>95.50035102968972</v>
       </c>
       <c r="U19" t="n">
         <v>286.2350578157167</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I20" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.8133087092504</v>
+        <v>25.77027527272716</v>
       </c>
       <c r="T20" t="n">
-        <v>170.9997346863722</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3681320930896</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H21" t="n">
         <v>94.50081326185511</v>
       </c>
       <c r="I21" t="n">
-        <v>36.29946757904878</v>
+        <v>26.17372043046388</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>137.5750138932992</v>
+        <v>76.83436461953312</v>
       </c>
       <c r="T21" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24150,7 +24150,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J22" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S22" t="n">
-        <v>77.0721030463299</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>100.6071071548257</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>343.5923386966493</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>148.0087293592046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>73.61666450782525</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24420,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>204.750994762928</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>270.4601319683918</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>131.5663422718911</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>201.5015964955179</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>172.1623007152687</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>304.8100100778333</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>371.9868520317696</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>78.09309857249679</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,19 +24888,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>102.1474757758888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>82.87897977084339</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>271.8145707770548</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25128,22 +25128,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>64.81814676751873</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>138.0881058334838</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>233.6440512519063</v>
       </c>
       <c r="Y35" t="n">
-        <v>158.520714960759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>137.366892447081</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>57.84811716694142</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>101.2981669321798</v>
       </c>
       <c r="E38" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>268.1732840349169</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.1489651602201</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>167.8579417260427</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>24.86821450891546</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.1216260491474</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>72.66698746754865</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.5482485912766</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>22.83197305488795</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>92.55462556469955</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>70.14976084898777</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>311972.6246470665</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>343591.2762591168</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>369610.8316300228</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619807.8782613196</v>
+        <v>622953.3404613413</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619807.8782613198</v>
+        <v>622191.2767309385</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619807.8782613198</v>
+        <v>619807.8782613196</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619807.8782613198</v>
+        <v>622953.3404613411</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789698.3456849994</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142987.4529632388</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>157479.3349520951</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>169404.9644970936</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
+        <v>285053.2611289329</v>
+      </c>
+      <c r="F2" t="n">
+        <v>284817.128705428</v>
+      </c>
+      <c r="G2" t="n">
         <v>284078.6108697713</v>
       </c>
-      <c r="F2" t="n">
-        <v>284078.6108697714</v>
-      </c>
-      <c r="G2" t="n">
-        <v>284078.6108697715</v>
-      </c>
       <c r="H2" t="n">
-        <v>284078.6108697716</v>
+        <v>285053.261128933</v>
       </c>
       <c r="I2" t="n">
         <v>361945.0751056244</v>
@@ -26346,13 +26346,13 @@
         <v>361945.0751056244</v>
       </c>
       <c r="M2" t="n">
+        <v>361945.0751056245</v>
+      </c>
+      <c r="N2" t="n">
         <v>361945.0751056243</v>
       </c>
-      <c r="N2" t="n">
-        <v>361945.0751056244</v>
-      </c>
       <c r="O2" t="n">
-        <v>361945.0751056244</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="P2" t="n">
         <v>361945.0751056244</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>444586.7849766331</v>
+        <v>444586.7849766327</v>
       </c>
       <c r="C3" t="n">
-        <v>49154.78669341584</v>
+        <v>49154.78669341622</v>
       </c>
       <c r="D3" t="n">
         <v>38987.52889819881</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>254625.8275892815</v>
+        <v>254625.8275892819</v>
       </c>
       <c r="J3" t="n">
-        <v>20027.40353188719</v>
+        <v>20027.40353188713</v>
       </c>
       <c r="K3" t="n">
-        <v>9154.111769197583</v>
+        <v>9154.111769197671</v>
       </c>
       <c r="L3" t="n">
-        <v>8241.274813353748</v>
+        <v>8241.274813353719</v>
       </c>
       <c r="M3" t="n">
-        <v>99043.58793293656</v>
+        <v>99043.58793293659</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.68893620422375</v>
+        <v>320289.8799850187</v>
       </c>
       <c r="C4" t="n">
-        <v>81.37067654131206</v>
+        <v>305279.4906303398</v>
       </c>
       <c r="D4" t="n">
-        <v>105.5521581027501</v>
+        <v>292927.7508397044</v>
       </c>
       <c r="E4" t="n">
-        <v>384.3219252469142</v>
+        <v>1403.274468915897</v>
       </c>
       <c r="F4" t="n">
-        <v>384.3219252469142</v>
+        <v>1156.408753433397</v>
       </c>
       <c r="G4" t="n">
-        <v>384.3219252469144</v>
+        <v>384.3219252469141</v>
       </c>
       <c r="H4" t="n">
-        <v>384.3219252469145</v>
+        <v>1403.274468915898</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47759.14971631562</v>
+        <v>47759.14971631559</v>
       </c>
       <c r="C5" t="n">
         <v>50823.37311172271</v>
@@ -26478,16 +26478,16 @@
         <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>51571.48185587232</v>
+        <v>51571.48185587231</v>
       </c>
       <c r="F5" t="n">
-        <v>51571.48185587232</v>
+        <v>51571.48185587231</v>
       </c>
       <c r="G5" t="n">
-        <v>51571.48185587232</v>
+        <v>51571.48185587231</v>
       </c>
       <c r="H5" t="n">
-        <v>51571.48185587232</v>
+        <v>51571.48185587229</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349411.1706659143</v>
+        <v>-361062.8412526111</v>
       </c>
       <c r="C6" t="n">
-        <v>57419.80447041529</v>
+        <v>46315.32298987702</v>
       </c>
       <c r="D6" t="n">
-        <v>76773.75809200763</v>
+        <v>66119.56833866809</v>
       </c>
       <c r="E6" t="n">
-        <v>-162819.400940273</v>
+        <v>-170432.7810564359</v>
       </c>
       <c r="F6" t="n">
-        <v>232122.8070886522</v>
+        <v>224509.4269724893</v>
       </c>
       <c r="G6" t="n">
-        <v>232122.8070886522</v>
+        <v>224509.4269724891</v>
       </c>
       <c r="H6" t="n">
-        <v>232122.8070886523</v>
+        <v>224509.4269724892</v>
       </c>
       <c r="I6" t="n">
-        <v>32428.25996594345</v>
+        <v>28354.26458777352</v>
       </c>
       <c r="J6" t="n">
-        <v>267026.6840233378</v>
+        <v>262952.6886451682</v>
       </c>
       <c r="K6" t="n">
-        <v>277899.9757860274</v>
+        <v>273825.9804078576</v>
       </c>
       <c r="L6" t="n">
-        <v>278812.8127418712</v>
+        <v>274738.8173637016</v>
       </c>
       <c r="M6" t="n">
-        <v>188010.4996222883</v>
+        <v>183936.5042441188</v>
       </c>
       <c r="N6" t="n">
-        <v>287054.0875552249</v>
+        <v>282980.0921770552</v>
       </c>
       <c r="O6" t="n">
-        <v>287054.087555225</v>
+        <v>282980.0921770553</v>
       </c>
       <c r="P6" t="n">
-        <v>287054.0875552249</v>
+        <v>282980.0921770554</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>434.754377233661</v>
+        <v>434.7543772336606</v>
       </c>
       <c r="C3" t="n">
         <v>476.1157511985022</v>
@@ -26752,10 +26752,10 @@
         <v>853.7106645376849</v>
       </c>
       <c r="G3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="H3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.54447849706926</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="C4" t="n">
         <v>112.1126601249236</v>
@@ -26798,16 +26798,16 @@
         <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261641</v>
       </c>
       <c r="F4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261641</v>
       </c>
       <c r="G4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261641</v>
       </c>
       <c r="H4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
@@ -26816,16 +26816,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022928</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>434.754377233661</v>
+        <v>434.7543772336606</v>
       </c>
       <c r="C3" t="n">
-        <v>41.36137396484122</v>
+        <v>41.36137396484155</v>
       </c>
       <c r="D3" t="n">
         <v>33.71341500264822</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.0660360556132</v>
+        <v>236.0660360556135</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.54447849706926</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="C4" t="n">
-        <v>35.56818162785433</v>
+        <v>35.56818162785456</v>
       </c>
       <c r="D4" t="n">
         <v>32.56249654611867</v>
       </c>
       <c r="E4" t="n">
-        <v>397.439800055122</v>
+        <v>397.4398000551219</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>289.2864986761285</v>
+        <v>289.286498676129</v>
       </c>
       <c r="J4" t="n">
-        <v>76.54447849706926</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="K4" t="n">
-        <v>35.56818162785422</v>
+        <v>35.56818162785456</v>
       </c>
       <c r="L4" t="n">
-        <v>32.56249654611878</v>
+        <v>32.56249654611867</v>
       </c>
       <c r="M4" t="n">
-        <v>397.4398000551217</v>
+        <v>397.4398000551219</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>76.54447849706926</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="K4" t="n">
-        <v>35.56818162785433</v>
+        <v>35.56818162785456</v>
       </c>
       <c r="L4" t="n">
         <v>32.56249654611867</v>
       </c>
       <c r="M4" t="n">
-        <v>397.439800055122</v>
+        <v>397.4398000551219</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>330.3315672446424</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>337.0105027276794</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>310.5069866883755</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>66.55103668820841</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>32.70727407548864</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>105.7980417381364</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>169.1930731190612</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>215.4450464029641</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2058324046056</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>96.1640204912467</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.1258308363657</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>81.10060195833191</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>68.52473389631484</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.4083851065194</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>103.2040372679255</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.32594734637513</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>87.61928732132525</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>154.3135032964364</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>196.3954902733335</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8798602351399</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,76 +27536,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2069960552505</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>155.2568482298245</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.873958863505</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>71.56780190257351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>37.92865257961438</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.32774045698768</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>16.03283760924425</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7.714717711557554</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>27.6440621038271</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>42.90878708658011</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.85709066716309</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>142.0426512165517</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>210.3539071983341</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.5958425873008</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2762666308614</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>325.5740782643988</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>301.2760442195642</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>207.7600497819525</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>214.7171693596231</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>54.42052352494375</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>35.33240543971516</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>64.26286446312979</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>116.2561773176593</v>
       </c>
     </row>
     <row r="7">
@@ -27773,76 +27773,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.26310570632464</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.613446413741208</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4.341129883412094</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>17.1016581299688</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>33.88793923037926</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>262.5679555570637</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>262.2008890706692</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>17.64046216220322</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>139.9282500027339</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.638896330325089</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>61.09782853243522</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>61.0075391062621</v>
       </c>
     </row>
     <row r="10">
@@ -28010,34 +28010,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.607050288750873</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28049,37 +28049,37 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.747756290386576</v>
+        <v>1.747756290386574</v>
       </c>
       <c r="H2" t="n">
-        <v>17.89920910892152</v>
+        <v>17.89920910892151</v>
       </c>
       <c r="I2" t="n">
-        <v>67.38037438512852</v>
+        <v>67.38037438512846</v>
       </c>
       <c r="J2" t="n">
-        <v>148.3386304511978</v>
+        <v>148.3386304511976</v>
       </c>
       <c r="K2" t="n">
-        <v>222.3211542232615</v>
+        <v>222.3211542232613</v>
       </c>
       <c r="L2" t="n">
-        <v>275.8090507951798</v>
+        <v>275.8090507951795</v>
       </c>
       <c r="M2" t="n">
-        <v>306.890711724342</v>
+        <v>306.8907117243418</v>
       </c>
       <c r="N2" t="n">
-        <v>305.9575420936602</v>
+        <v>305.95754209366</v>
       </c>
       <c r="O2" t="n">
-        <v>294.4772726718713</v>
+        <v>294.4772726718711</v>
       </c>
       <c r="P2" t="n">
-        <v>251.3295392529527</v>
+        <v>251.3295392529525</v>
       </c>
       <c r="Q2" t="n">
-        <v>188.7380171034834</v>
+        <v>188.7380171034833</v>
       </c>
       <c r="R2" t="n">
-        <v>109.7874960759958</v>
+        <v>109.7874960759957</v>
       </c>
       <c r="S2" t="n">
-        <v>39.82699646718413</v>
+        <v>39.8269964671841</v>
       </c>
       <c r="T2" t="n">
-        <v>7.650803161167238</v>
+        <v>7.650803161167232</v>
       </c>
       <c r="U2" t="n">
-        <v>0.139820503230926</v>
+        <v>0.1398205032309259</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9351320566912709</v>
+        <v>0.9351320566912701</v>
       </c>
       <c r="H3" t="n">
-        <v>9.031406968570959</v>
+        <v>9.031406968570952</v>
       </c>
       <c r="I3" t="n">
-        <v>32.1964326536249</v>
+        <v>32.19643265362487</v>
       </c>
       <c r="J3" t="n">
-        <v>88.34947207538012</v>
+        <v>88.34947207538005</v>
       </c>
       <c r="K3" t="n">
-        <v>151.0033198736953</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>154.2494703258929</v>
+        <v>203.0425985372865</v>
       </c>
       <c r="M3" t="n">
-        <v>218.6785124190876</v>
+        <v>218.6785124190874</v>
       </c>
       <c r="N3" t="n">
-        <v>207.8861905804026</v>
+        <v>207.8861905804023</v>
       </c>
       <c r="O3" t="n">
-        <v>219.1407229415137</v>
+        <v>183.509475629456</v>
       </c>
       <c r="P3" t="n">
-        <v>178.5692082641428</v>
+        <v>178.5692082641426</v>
       </c>
       <c r="Q3" t="n">
-        <v>119.3687867453629</v>
+        <v>119.3687867453628</v>
       </c>
       <c r="R3" t="n">
-        <v>58.06021664263875</v>
+        <v>58.06021664263871</v>
       </c>
       <c r="S3" t="n">
-        <v>17.36966780740145</v>
+        <v>17.36966780740143</v>
       </c>
       <c r="T3" t="n">
-        <v>3.76923842148806</v>
+        <v>3.769238421488057</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06152184583495205</v>
+        <v>0.061521845834952</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7839833032082411</v>
+        <v>0.7839833032082404</v>
       </c>
       <c r="H4" t="n">
-        <v>6.970324277615093</v>
+        <v>6.970324277615088</v>
       </c>
       <c r="I4" t="n">
-        <v>23.57651606375329</v>
+        <v>23.57651606375327</v>
       </c>
       <c r="J4" t="n">
-        <v>55.42761953682264</v>
+        <v>55.4276195368226</v>
       </c>
       <c r="K4" t="n">
-        <v>91.08460559092107</v>
+        <v>91.084605590921</v>
       </c>
       <c r="L4" t="n">
-        <v>116.5569358242507</v>
+        <v>116.5569358242506</v>
       </c>
       <c r="M4" t="n">
-        <v>122.8929463383609</v>
+        <v>122.8929463383608</v>
       </c>
       <c r="N4" t="n">
-        <v>119.9708267536757</v>
+        <v>119.9708267536756</v>
       </c>
       <c r="O4" t="n">
-        <v>110.8124763480158</v>
+        <v>110.8124763480157</v>
       </c>
       <c r="P4" t="n">
-        <v>94.81921696256759</v>
+        <v>94.81921696256751</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.64791096228281</v>
+        <v>65.64791096228275</v>
       </c>
       <c r="R4" t="n">
-        <v>35.25074016061781</v>
+        <v>35.25074016061778</v>
       </c>
       <c r="S4" t="n">
-        <v>13.66269083863816</v>
+        <v>13.66269083863815</v>
       </c>
       <c r="T4" t="n">
-        <v>3.349746840980665</v>
+        <v>3.349746840980663</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04276272562954047</v>
+        <v>0.04276272562954044</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31381,10 +31381,10 @@
         <v>243.4543722082569</v>
       </c>
       <c r="O6" t="n">
-        <v>216.9032093374736</v>
+        <v>243.6589731628787</v>
       </c>
       <c r="P6" t="n">
-        <v>195.5578073177395</v>
+        <v>168.8020434923343</v>
       </c>
       <c r="Q6" t="n">
         <v>130.7252153102001</v>
@@ -31606,7 +31606,7 @@
         <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
         <v>238.1046497432826</v>
@@ -31615,10 +31615,10 @@
         <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>275.1769923091012</v>
+        <v>276.0168687543755</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671113</v>
+        <v>220.8347924053681</v>
       </c>
       <c r="P9" t="n">
         <v>209.4051154534499</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H17" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I17" t="n">
-        <v>132.3122829933231</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J17" t="n">
-        <v>291.2869367409261</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K17" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L17" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M17" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N17" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O17" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P17" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q17" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S17" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T17" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H18" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I18" t="n">
-        <v>63.22291242095122</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J18" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K18" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L18" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M18" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N18" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O18" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P18" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q18" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R18" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S18" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T18" t="n">
-        <v>7.401510384057852</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H19" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I19" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J19" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K19" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L19" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M19" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N19" t="n">
-        <v>235.5821576420142</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O19" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P19" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R19" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S19" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T19" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H20" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I20" t="n">
-        <v>132.3122829933231</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J20" t="n">
-        <v>291.2869367409261</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K20" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L20" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M20" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N20" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O20" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P20" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q20" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S20" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T20" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H21" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I21" t="n">
-        <v>63.22291242095122</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J21" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K21" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L21" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M21" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N21" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O21" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P21" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q21" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R21" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S21" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T21" t="n">
-        <v>7.401510384057852</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H22" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I22" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J22" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K22" t="n">
         <v>178.8593818490428</v>
       </c>
       <c r="L22" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M22" t="n">
         <v>241.3202129282508</v>
       </c>
       <c r="N22" t="n">
-        <v>235.5821576420142</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O22" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P22" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R22" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S22" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T22" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.231303178280996</v>
+        <v>2.231303178280797</v>
       </c>
       <c r="L2" t="n">
-        <v>40.04263582519252</v>
+        <v>40.04263582519229</v>
       </c>
       <c r="M2" t="n">
-        <v>76.54447849706926</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="N2" t="n">
-        <v>76.54447849706926</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="O2" t="n">
-        <v>64.37906125018461</v>
+        <v>64.37906125018438</v>
       </c>
       <c r="P2" t="n">
-        <v>20.0965434976832</v>
+        <v>20.096543497683</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13.16188089933627</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15.69509054601868</v>
+        <v>64.48821875741234</v>
       </c>
       <c r="M3" t="n">
-        <v>76.54447849706926</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="N3" t="n">
-        <v>76.54447849706926</v>
+        <v>76.54447849706904</v>
       </c>
       <c r="O3" t="n">
-        <v>76.54447849706926</v>
+        <v>40.91323118501155</v>
       </c>
       <c r="P3" t="n">
-        <v>44.59480084981254</v>
+        <v>44.5948008498124</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>112.1126601249236</v>
       </c>
       <c r="O6" t="n">
-        <v>74.30696489302912</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P6" t="n">
-        <v>61.58339990340929</v>
+        <v>34.82763607800408</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L9" t="n">
         <v>99.55026996340837</v>
@@ -35263,10 +35263,10 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>143.8352802257679</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226669</v>
+        <v>78.23854796092367</v>
       </c>
       <c r="P9" t="n">
         <v>75.43070803911962</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K17" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L17" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M17" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N17" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O17" t="n">
-        <v>348.1556286974043</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P17" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.3119886183905</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K18" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L18" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M18" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N18" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O18" t="n">
-        <v>294.3022689440066</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P18" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L19" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M19" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N19" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O19" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P19" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K20" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L20" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M20" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N20" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O20" t="n">
-        <v>348.1556286974043</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P20" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.3119886183905</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K21" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L21" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M21" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N21" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O21" t="n">
-        <v>294.3022689440066</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P21" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L22" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M22" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N22" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O22" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P22" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38025,7 +38025,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
